--- a/Falabella/CargarBoletas.xlsx
+++ b/Falabella/CargarBoletas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andry\Documents\GitHub\FotosMH\Falabella\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F9FEA5-D456-4A1D-A2B0-D47BD17C1972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2E0BD5-9327-48E2-BFCA-F69B918EDA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15165" yWindow="4665" windowWidth="21600" windowHeight="11385" xr2:uid="{9AF59ED8-52D3-461A-A656-1465DC28BD78}"/>
+    <workbookView xWindow="19860" yWindow="0" windowWidth="8940" windowHeight="15600" xr2:uid="{9AF59ED8-52D3-461A-A656-1465DC28BD78}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,30 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>https://github.com/andrymoran/FotosMH/raw/main/Boletas/Boletas%20Falabella/2022/12-2022/boleta39_folio15215_2023-01-18.pdf</t>
-  </si>
-  <si>
-    <t>https://github.com/andrymoran/FotosMH/raw/main/Boletas/Boletas%20Falabella/2022/12-2022/boleta39_folio15185_2023-01-18.pdf</t>
-  </si>
-  <si>
-    <t>https://github.com/andrymoran/FotosMH/raw/main/Boletas/Boletas%20Falabella/2022/12-2022/boleta39_folio15186_2023-01-18.pdf</t>
-  </si>
-  <si>
-    <t>https://github.com/andrymoran/FotosMH/raw/main/Boletas/Boletas%20Falabella/2022/12-2022/boleta39_folio15328_2023-01-19.pdf</t>
-  </si>
-  <si>
-    <t>https://github.com/andrymoran/FotosMH/raw/main/Boletas/Boletas%20Falabella/2022/12-2022/boleta39_folio15006_2023-01-16.pdf</t>
-  </si>
-  <si>
-    <t>https://github.com/andrymoran/FotosMH/raw/main/Boletas/Boletas%20Falabella/2022/12-2022/boleta39_folio15335_2023-01-19.pdf</t>
-  </si>
-  <si>
-    <t>https://github.com/andrymoran/FotosMH/raw/main/Boletas/Boletas%20Falabella/2022/12-2022/boleta39_folio15336_2023-01-19.pdf</t>
-  </si>
-  <si>
-    <t>https://github.com/andrymoran/FotosMH/raw/main/Boletas/Boletas%20Falabella/2022/12-2022/boleta39_folio15210_2023-01-18.pdf</t>
+    <t>https://github.com/andrymoran/FotosMH/raw/main/Boletas/Boletas%20Falabella/2022/12-2022/boleta39_folio15340_2023-01-19.pdf</t>
   </si>
 </sst>
 </file>
@@ -64,18 +43,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,7 +65,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -109,56 +88,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -468,7 +408,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -476,104 +416,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A465B3A-0A94-4440-9BA9-FCB0645AC7DB}">
-  <dimension ref="B1:E11"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="4" width="74.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="4" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="4">
-        <v>2040564202</v>
+    <row r="1" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>15340</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
+      <c r="B1" s="2">
+        <v>2040721041</v>
       </c>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3">
-        <v>2040574382</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="5">
-        <v>2040550491</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6">
-        <v>2040550090</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4">
-        <v>2040550090</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="4">
-        <v>2040552063</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="4">
-        <v>2040557877</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="4">
-        <v>2040563200</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="D1" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" display="https://github.com/andrymoran/FotosMH/raw/main/Boletas/Boletas Falabella/2022/12-2022/boleta39_folio15215_2023-01-18.pdf" xr:uid="{36084CC3-BC56-4F5B-85F8-89BC7E65794F}"/>
-    <hyperlink ref="C9" r:id="rId2" display="https://github.com/andrymoran/FotosMH/raw/main/Boletas/Boletas Falabella/2022/12-2022/boleta39_folio15328_2023-01-19.pdf" xr:uid="{C890E96B-B01B-466B-80EF-FA853AB10D2A}"/>
-    <hyperlink ref="C10" r:id="rId3" display="https://github.com/andrymoran/FotosMH/raw/main/Boletas/Boletas Falabella/2022/12-2022/boleta39_folio15006_2023-01-16.pdf" xr:uid="{CB8D936D-C7DE-4644-8F26-B3F3D8014CCB}"/>
-    <hyperlink ref="C11" r:id="rId4" display="https://github.com/andrymoran/FotosMH/raw/main/Boletas/Boletas Falabella/2022/12-2022/boleta39_folio15335_2023-01-19.pdf" xr:uid="{2E41B021-D50B-486C-9CA1-3B3DA1AFAF6F}"/>
-    <hyperlink ref="C1" r:id="rId5" display="https://github.com/andrymoran/FotosMH/raw/main/Boletas/Boletas Falabella/2022/12-2022/boleta39_folio15336_2023-01-19.pdf" xr:uid="{5728B2DE-B20E-4501-A38B-6B5DEEDED115}"/>
-    <hyperlink ref="C2" r:id="rId6" display="https://github.com/andrymoran/FotosMH/raw/main/Boletas/Boletas Falabella/2022/12-2022/boleta39_folio15210_2023-01-18.pdf" xr:uid="{3937BC50-1A6D-4007-BC68-7B3CC5E69D2E}"/>
-    <hyperlink ref="C7" r:id="rId7" display="https://github.com/andrymoran/FotosMH/raw/main/Boletas/Boletas Falabella/2022/12-2022/boleta39_folio15185_2023-01-18.pdf" xr:uid="{72950E74-FAD4-4F31-BF72-559A27E165FF}"/>
-    <hyperlink ref="C8" r:id="rId8" display="https://github.com/andrymoran/FotosMH/raw/main/Boletas/Boletas Falabella/2022/12-2022/boleta39_folio15186_2023-01-18.pdf" xr:uid="{E0DCC510-2F7D-41F5-B29F-E06BCA64E225}"/>
+    <hyperlink ref="C1" r:id="rId1" display="https://github.com/andrymoran/FotosMH/raw/main/Boletas/Boletas Falabella/2022/12-2022/boleta39_folio15340_2023-01-19.pdf" xr:uid="{B2A4E45B-76AA-48EE-9CE1-EF0B7AEE4DAE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId9"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
 </worksheet>
 </file>